--- a/Banco Central/11/1/4/Índice de ventas industrial 2000 a 2021 - Trimestral.xlsx
+++ b/Banco Central/11/1/4/Índice de ventas industrial 2000 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Serie</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -638,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1490,7 +1493,7 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>103.57</v>
+        <v>103.55</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1531,6 +1534,14 @@
       </c>
       <c r="B86">
         <v>106.11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87">
+        <v>106.03</v>
       </c>
     </row>
   </sheetData>
